--- a/medicine/Enfance/L._N._Lavolle/L._N._Lavolle.xlsx
+++ b/medicine/Enfance/L._N._Lavolle/L._N._Lavolle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Louise Noëlle Lavolle, qui signe L. N. Lavolle, née Hélène Chaulet[1], (Tom Sung,  Viêt Nam, 2 mars 1914[2] - Biarritz, 18 mai 1994[3],[4]) est une écrivaine française de romans pour la jeunesse.
+Louise Noëlle Lavolle, qui signe L. N. Lavolle, née Hélène Chaulet, (Tom Sung,  Viêt Nam, 2 mars 1914 - Biarritz, 18 mai 1994,) est une écrivaine française de romans pour la jeunesse.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hélène Chaulet, née le 2 mars 1914, est la petite-fille de Paschal Grousset, alias André Laurie (1844-1909), un député socialiste lui-même écrivain et journaliste[5]. Un an avant sa mort, André Laurie épouse Marie Josèphe Lavolle, dont Hélène Chaulet emprunte le nom pour écrire sous le pseudonyme de L. N. Lavolle (« L. N. », supposé être les initiales de « Louise Noëlle », est en réalité un homophone de « Hélène », son véritable prénom)[5]. Elle utilisera également les pseudonymes de Claude Bailly (pour Nicolo et le lézard bleu, en 1963) et de Dominique Glize (pour Émeutes à Kaboul, en 1971)[5].
-Archéologue[6] et grande voyageuse, il semble qu'elle ait vécu en Inde dans sa jeunesse[7]. Elle commence à écrire des romans destinés à la jeunesse qui sont d'abord publiés par des maisons d'éditions catholiques. Puis L. N. Lavolle intègre la maison d'édition de G.T. Rageot-éditions de l'Amitié. Elle y publie plusieurs romans historiques pour adolescents. Elle reçoit le Prix Enfance du monde 1959 pour Nuno de Nazaré et le Grand Prix du Salon de l'enfance de 1960 pour Les Clés du désert[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hélène Chaulet, née le 2 mars 1914, est la petite-fille de Paschal Grousset, alias André Laurie (1844-1909), un député socialiste lui-même écrivain et journaliste. Un an avant sa mort, André Laurie épouse Marie Josèphe Lavolle, dont Hélène Chaulet emprunte le nom pour écrire sous le pseudonyme de L. N. Lavolle (« L. N. », supposé être les initiales de « Louise Noëlle », est en réalité un homophone de « Hélène », son véritable prénom). Elle utilisera également les pseudonymes de Claude Bailly (pour Nicolo et le lézard bleu, en 1963) et de Dominique Glize (pour Émeutes à Kaboul, en 1971).
+Archéologue et grande voyageuse, il semble qu'elle ait vécu en Inde dans sa jeunesse. Elle commence à écrire des romans destinés à la jeunesse qui sont d'abord publiés par des maisons d'éditions catholiques. Puis L. N. Lavolle intègre la maison d'édition de G.T. Rageot-éditions de l'Amitié. Elle y publie plusieurs romans historiques pour adolescents. Elle reçoit le Prix Enfance du monde 1959 pour Nuno de Nazaré et le Grand Prix du Salon de l'enfance de 1960 pour Les Clés du désert.
 </t>
         </is>
       </c>
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-1952 : Sous le ciel de l'Inde, Éditions Hachette, coll. Bibliothèque rose illustrée. Illustrations de Philippe Ledoux.
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1952 : Sous le ciel de l'Inde, Éditions Hachette, coll. Bibliothèque rose illustrée. Illustrations de Philippe Ledoux.
 1956 : L'Émeraude du Grand Mogol, Éditions Fleurus et Gautier-Languereau, coll. Jean-François. Illustrations de Cyril.
 1957 : Le Conquérant de Golconde, Éditions Desclée de Brouwer, coll. Belle Humeur. Illustrations d'Étienne Morel.
 1957 : Mango, Éditions Fleurus, coll. Caravelles, no 2. Illustrations de Giovanni Giannini.
@@ -556,7 +575,7 @@
 1958 : Nhoti fils de l'Inde, Éditions de l'amitié-G.T. Rageot, coll. Heures Joyeuses, no 110. Illustrations de J.P. Lequeret, photographie de couverture d'Isaac Kitrosser.
 1959 : Nuno de Nazaré, Éditions Fleurus et Gautier-Languereau, coll. Jean-François. Illustrations d'Alain d'Orange. Réédition 1964, Éditions Gautier-Languereau, coll. Bibliothèque Bleue, no 61. Illustrations d'Alain d'Orange. Réédition 1974 : 3 Romans de mer (Nuno de Nazaré par L. N. Lavolle, Mystère à bord par Henriette Robitaillie et Le Capitaine du Jamboree par Jean-Louis Dubreuil), Éditions : Gautier-Languereau, coll. 3 Romans, Illustrations Georges Pichard.
 1959 : Les Sorcières de la mer, Éditions Fleurus et Mame, coll. Monique. Illustrations d' Alain d'Orange.
-1959 : L’Étang perdu[9], Éditions de l'amitié-G.T. Rageot, coll. Bibliothèque de l'amitié, no 2. Illustrations de Jacques Daynié, photographies de P. Chaulet.
+1959 : L’Étang perdu, Éditions de l'amitié-G.T. Rageot, coll. Bibliothèque de l'amitié, no 2. Illustrations de Jacques Daynié, photographies de P. Chaulet.
 1960 : L'Indien aux yeux clairs, Éditions Fleurus et  Mame. coll. Monique. Illustrations de Jean Le Moing.
 1960 : Les Clés du désert, Éditions de l'amitié-G.T. Rageot, coll. Bibliothèque de l'amitié, no 7. Illustrations de jacques Daynié, photographies d'Isaac Kitrosser. Réédition 1967, Éditions de l'amitié-G. T.Rageot, coll. Bibliothèque de l'amitié, série Histoire, no 4. Illustrations de Bernard Ducourand, photographies du British Museum et d'Isaac Kitrosser
 1960 : Le Monde de l'or noir, Éditions Desclée de Brouwer, coll. Belle Humeur, no 80. Illustrations de Guy Michel, couverture de G. Guerenne.
@@ -574,7 +593,7 @@
 1965 : Nathie en Iran, Éditions Gautier-Languereau, coll. Bibliothèque Bleue, no 69. Illustrations de Georges Pichard. Réédition 1976 : 3 Romans de voyages (Nathie en Iran de L. N. Lavolle, Le Secret du bateau d'ivoire de Paulette Blonay et Le Héros et la turquoise de Patrick Saint-Lambert), Éditions Gautier-Languereau, coll. 3 Romans.
 1965 : Le Lis de la Mousson, Éditions de l'amitié-G. T. Rageot, coll. Bibliothèque de l'amitié, no 42. Illustrations de Michel Gourlier. Photographies de Jacques Biltgen.
 1965 :L'Île née de la mer, Éditions de l'amitié-G. T. Rageot, coll. Bibliothèque de l'amitié. Illustrations de Michel Gourlier. Réédition 1983, Éditions de l'amitié-G. T. Rageot, coll. Les Maîtres de l'Aventure. Illustrations de Véronique Roux.
-1966 : L'Acrobate de Minos, Éditions de l'amitié-G. T. Rageot, coll. Bibliothèque de l'amitié série Histoire, no 2. Illustrations de Françoise Pichard-Boudignon, photographies de L. N. Lavolle, de l'Agence Roger-Viollet et de La Peinture Égyptienne d'Arpag Mekhitarian aux éditions Skira, 1954. Réédition en 1983, Éditions de l'amitié-G. T. Rageot, coll. Les Maîtres de l'Aventure. Illustrations de Patrick Deubelbeiss. Réédition en 1991, Éditions Rageot, coll. Cascade, Romans 11-13 ans. Illustrations de Christian Heinrich, couverture d'Alain Gauthier, [10].
+1966 : L'Acrobate de Minos, Éditions de l'amitié-G. T. Rageot, coll. Bibliothèque de l'amitié série Histoire, no 2. Illustrations de Françoise Pichard-Boudignon, photographies de L. N. Lavolle, de l'Agence Roger-Viollet et de La Peinture Égyptienne d'Arpag Mekhitarian aux éditions Skira, 1954. Réédition en 1983, Éditions de l'amitié-G. T. Rageot, coll. Les Maîtres de l'Aventure. Illustrations de Patrick Deubelbeiss. Réédition en 1991, Éditions Rageot, coll. Cascade, Romans 11-13 ans. Illustrations de Christian Heinrich, couverture d'Alain Gauthier, .
 1966 : Le Bois des quatre-vents, Éditions Hachette, coll.. Idéal-Bibliothèque no 302. Illustrations de Maurice Pelfrène.
 1967 : Les Perles de Cléopâtre, Éditions de l'amitié-G.T. Rageot, coll.. Bibliothèque de l'amitié, série Histoire no 9. Illustrations de N. Hosxe-Bridant, photographies tirées de La Peinture Égyptienne d'Arpag Mekhitarian aux éditions Skira, 1954.
 1968 : L'Évadé de Carthage, Éditions G. P., Coll. Rouge et Or souveraine, no 265. Illustrations de Jacques Pecnard.
@@ -624,7 +643,9 @@
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Prix Enfance du monde 1959 pour le roman Nuno de Nazaré, paru aux Éditions Fleurus et Gautier-Languereau.
 Grand Prix du Salon de l'enfance 1960 pour le roman Les Clés du désert, paru aux Éditions de l'amitié-G. T. Rageot.
